--- a/ResultadosExperimentos/Experimento1/Experimento1.xlsx
+++ b/ResultadosExperimentos/Experimento1/Experimento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolzd\Desktop\a\IA-FIB-Practica1-23-24-Q1\ResultadosExperimentos\Experimento1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0BCB6-0462-461C-A52F-5893C8625BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17413F7-5E41-4EB8-A8AF-CB0E35E1DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,44 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$A$43</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Hoja1!$B$60:$U$60</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Hoja1!$B$61:$U$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Hoja1!$A$47</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Hoja1!$A$48</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Hoja1!$A$49</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Hoja1!$B$47:$U$47</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Hoja1!$B$48:$U$48</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Hoja1!$B$49:$U$49</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Hoja1!$A$64</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Hoja1!$A$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$A$44</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Hoja1!$A$66</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Hoja1!$B$64:$U$64</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Hoja1!$B$65:$U$65</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Hoja1!$B$66:$U$66</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Hoja1!$A$52</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Hoja1!$A$53</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Hoja1!$A$54</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Hoja1!$B$52:$U$52</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Hoja1!$B$53:$U$53</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Hoja1!$B$54:$U$54</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$B$42:$U$42</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Hoja1!$A$69</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Hoja1!$A$70</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Hoja1!$A$71</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Hoja1!$B$69:$U$69</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Hoja1!$B$70:$U$70</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Hoja1!$B$71:$U$71</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$B$43:$U$43</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$B$44:$U$44</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$A$59</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$A$60</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$A$61</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$B$59:$U$59</definedName>
     <definedName name="Experimento1_Resumen" localSheetId="0">Hoja1!$A$1:$D$68</definedName>
+    <definedName name="Experimento2" localSheetId="0">Hoja1!$A$40:$U$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,11 +76,38 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{025E4708-2DA7-4BD4-A2C7-5B69F32604AB}" name="Experimento2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\lolzd\Desktop\a\IA-FIB-Practica1-23-24-Q1\Experimento2.txt" space="1" consecutive="1">
+      <textFields count="21">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>drop</t>
   </si>
@@ -94,6 +158,15 @@
   </si>
   <si>
     <t>Set2</t>
+  </si>
+  <si>
+    <t>Nodos</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -2293,6 +2366,1035 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Estudio de los nodos expandidos Set1</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Estudio de los nodos expandidos Set1</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EEB83EF2-CE7F-4D2D-9C03-A57AAAB335FC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EEA6622F-5123-4630-8FD3-FE856340D197}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{01B509E5-E5EB-4186-A8C6-AC5EF00FDBFE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Soluciones</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Soluciones</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Nodos expandidos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Nodos expandidos</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Estudio de los nodos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>expandidos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Set2</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D0227245-5019-41D9-AF09-2F7E0F01F2B2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{13602E09-D343-4233-B6D6-E2FDC6FAFD2A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7BA44DF8-7B7D-483F-BCBC-0620E9B625C5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Soluciones</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Nodos expandidos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Nodos expandidos</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Estudio de la ganancia Set1</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Estudio de la ganancia Set1</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FDDB8519-ECF3-4EBD-BAA3-AC7F2F0A0934}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{06578FAD-8ED6-4939-8897-36FE775BD7FF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1632A7BB-E0FF-4B47-9543-27AD9ABC7A57}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Soluciones</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Ganancia</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Ganancia</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Estudio de la ganancia Set2</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Estudio de la ganancia Set2</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5E14300D-95F3-4840-8D05-96750DC85B0C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A2B8E226-F3DE-43DA-A708-17E7762C2396}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{ECF19AFC-3246-4BED-9217-E4D425D392B4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Soluciones</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Ganancia</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Ganancia</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Estudio del tiempo Set1</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Estudio del tiempo Set1</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FE1900DD-4853-40FD-ABA8-FCA744AC840C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{ACCD27CA-49E4-4277-A82F-E7A02ADCED34}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{74172AE1-9752-4A87-9709-8408D9440B56}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Soluciones</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Soluciones</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Tiempo en milisegundos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Tiempo en milisegundos</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.34</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Estudio del tiempo Set2</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Estudio del tiempo Set2</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0521F763-72BD-4B8D-94BE-B8AEC50B1525}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>Basic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3E074077-207A-4D6F-A55B-5A12649BA184}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:v>Mixed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9B3EA2DD-E143-4A11-BC23-D4579D451A7C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Soluciones</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Soluciones</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Tiempo en </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2413,6 +3515,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3922,20 +5264,3110 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3962,16 +8394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3998,15 +8430,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4032,11 +8464,483 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB400E7-8924-4D75-8803-D915570AAEAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8448675" y="6667500"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFF66C6-4634-497E-ACDD-95237861B033}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8562975" y="9667875"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Gráfico 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F27F56E-8C1E-4AC4-B750-1CF5AB09EAC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13401675" y="6648450"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Gráfico 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219C3D6E-D708-4305-894B-F7EC17B47074}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13335000" y="9677400"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>170891</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>475691</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Gráfico 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE11ADA-2826-41AD-802C-F9BD6CD709DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18258866" y="6656854"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="10" name="Gráfico 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F303B71-4A86-45DF-93EA-1CE9FB5B7D90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18316575" y="9737911"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Experimento1-Resumen" connectionId="1" xr16:uid="{FFE955A0-329B-45F7-AE4C-2C609DDF6524}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Experimento2" connectionId="2" xr16:uid="{0A5B2006-1795-40D9-86A9-2AB740DB5DD0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4302,20 +9206,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="4" customWidth="1"/>
+    <col min="8" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,6 +9526,1216 @@
       </c>
       <c r="E26">
         <v>1539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>25</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>25</v>
+      </c>
+      <c r="I42">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>25</v>
+      </c>
+      <c r="P42">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>25</v>
+      </c>
+      <c r="R42">
+        <v>26</v>
+      </c>
+      <c r="S42">
+        <v>30</v>
+      </c>
+      <c r="T42">
+        <v>27</v>
+      </c>
+      <c r="U42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>23</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+      <c r="P43">
+        <v>19</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+      <c r="R43">
+        <v>19</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43">
+        <v>19</v>
+      </c>
+      <c r="U43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>6</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>72</v>
+      </c>
+      <c r="G47">
+        <v>86</v>
+      </c>
+      <c r="H47">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>72</v>
+      </c>
+      <c r="J47">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47">
+        <v>97</v>
+      </c>
+      <c r="M47">
+        <v>94</v>
+      </c>
+      <c r="N47">
+        <v>47</v>
+      </c>
+      <c r="O47">
+        <v>70</v>
+      </c>
+      <c r="P47">
+        <v>70</v>
+      </c>
+      <c r="Q47">
+        <v>68</v>
+      </c>
+      <c r="R47">
+        <v>93</v>
+      </c>
+      <c r="S47">
+        <v>99</v>
+      </c>
+      <c r="T47">
+        <v>57</v>
+      </c>
+      <c r="U47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>37</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <v>40</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>15</v>
+      </c>
+      <c r="O48">
+        <v>33</v>
+      </c>
+      <c r="P48">
+        <v>57</v>
+      </c>
+      <c r="Q48">
+        <v>24</v>
+      </c>
+      <c r="R48">
+        <v>24</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>36</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>82</v>
+      </c>
+      <c r="E49">
+        <v>87</v>
+      </c>
+      <c r="F49">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>107</v>
+      </c>
+      <c r="H49">
+        <v>78</v>
+      </c>
+      <c r="I49">
+        <v>81</v>
+      </c>
+      <c r="J49">
+        <v>82</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>98</v>
+      </c>
+      <c r="M49">
+        <v>105</v>
+      </c>
+      <c r="N49">
+        <v>48</v>
+      </c>
+      <c r="O49">
+        <v>87</v>
+      </c>
+      <c r="P49">
+        <v>79</v>
+      </c>
+      <c r="Q49">
+        <v>69</v>
+      </c>
+      <c r="R49">
+        <v>101</v>
+      </c>
+      <c r="S49">
+        <v>107</v>
+      </c>
+      <c r="T49">
+        <v>72</v>
+      </c>
+      <c r="U49">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>11</v>
+      </c>
+      <c r="M59">
+        <v>11</v>
+      </c>
+      <c r="N59">
+        <v>11</v>
+      </c>
+      <c r="O59">
+        <v>11</v>
+      </c>
+      <c r="P59">
+        <v>11</v>
+      </c>
+      <c r="Q59">
+        <v>11</v>
+      </c>
+      <c r="R59">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+      <c r="U59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>23</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
+      </c>
+      <c r="M60">
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <v>24</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>80</v>
+      </c>
+      <c r="C64">
+        <v>89</v>
+      </c>
+      <c r="D64">
+        <v>79</v>
+      </c>
+      <c r="E64">
+        <v>79</v>
+      </c>
+      <c r="F64">
+        <v>78</v>
+      </c>
+      <c r="G64">
+        <v>103</v>
+      </c>
+      <c r="H64">
+        <v>75</v>
+      </c>
+      <c r="I64">
+        <v>78</v>
+      </c>
+      <c r="J64">
+        <v>80</v>
+      </c>
+      <c r="K64">
+        <v>58</v>
+      </c>
+      <c r="L64">
+        <v>96</v>
+      </c>
+      <c r="M64">
+        <v>102</v>
+      </c>
+      <c r="N64">
+        <v>47</v>
+      </c>
+      <c r="O64">
+        <v>85</v>
+      </c>
+      <c r="P64">
+        <v>77</v>
+      </c>
+      <c r="Q64">
+        <v>68</v>
+      </c>
+      <c r="R64">
+        <v>97</v>
+      </c>
+      <c r="S64">
+        <v>103</v>
+      </c>
+      <c r="T64">
+        <v>70</v>
+      </c>
+      <c r="U64">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>81</v>
+      </c>
+      <c r="C65">
+        <v>41</v>
+      </c>
+      <c r="D65">
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <v>67</v>
+      </c>
+      <c r="F65">
+        <v>82</v>
+      </c>
+      <c r="G65">
+        <v>43</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
+      </c>
+      <c r="I65">
+        <v>73</v>
+      </c>
+      <c r="J65">
+        <v>60</v>
+      </c>
+      <c r="K65">
+        <v>52</v>
+      </c>
+      <c r="L65">
+        <v>77</v>
+      </c>
+      <c r="M65">
+        <v>77</v>
+      </c>
+      <c r="N65">
+        <v>15</v>
+      </c>
+      <c r="O65">
+        <v>61</v>
+      </c>
+      <c r="P65">
+        <v>80</v>
+      </c>
+      <c r="Q65">
+        <v>49</v>
+      </c>
+      <c r="R65">
+        <v>58</v>
+      </c>
+      <c r="S65">
+        <v>99</v>
+      </c>
+      <c r="T65">
+        <v>66</v>
+      </c>
+      <c r="U65">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+      <c r="D66">
+        <v>82</v>
+      </c>
+      <c r="E66">
+        <v>87</v>
+      </c>
+      <c r="F66">
+        <v>78</v>
+      </c>
+      <c r="G66">
+        <v>107</v>
+      </c>
+      <c r="H66">
+        <v>78</v>
+      </c>
+      <c r="I66">
+        <v>81</v>
+      </c>
+      <c r="J66">
+        <v>82</v>
+      </c>
+      <c r="K66">
+        <v>60</v>
+      </c>
+      <c r="L66">
+        <v>98</v>
+      </c>
+      <c r="M66">
+        <v>105</v>
+      </c>
+      <c r="N66">
+        <v>48</v>
+      </c>
+      <c r="O66">
+        <v>87</v>
+      </c>
+      <c r="P66">
+        <v>79</v>
+      </c>
+      <c r="Q66">
+        <v>69</v>
+      </c>
+      <c r="R66">
+        <v>101</v>
+      </c>
+      <c r="S66">
+        <v>107</v>
+      </c>
+      <c r="T66">
+        <v>72</v>
+      </c>
+      <c r="U66">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>384</v>
+      </c>
+      <c r="C69">
+        <v>293</v>
+      </c>
+      <c r="D69">
+        <v>253</v>
+      </c>
+      <c r="E69">
+        <v>269</v>
+      </c>
+      <c r="F69">
+        <v>201</v>
+      </c>
+      <c r="G69">
+        <v>239</v>
+      </c>
+      <c r="H69">
+        <v>195</v>
+      </c>
+      <c r="I69">
+        <v>190</v>
+      </c>
+      <c r="J69">
+        <v>193</v>
+      </c>
+      <c r="K69">
+        <v>168</v>
+      </c>
+      <c r="L69">
+        <v>229</v>
+      </c>
+      <c r="M69">
+        <v>226</v>
+      </c>
+      <c r="N69">
+        <v>150</v>
+      </c>
+      <c r="O69">
+        <v>193</v>
+      </c>
+      <c r="P69">
+        <v>185</v>
+      </c>
+      <c r="Q69">
+        <v>177</v>
+      </c>
+      <c r="R69">
+        <v>224</v>
+      </c>
+      <c r="S69">
+        <v>234</v>
+      </c>
+      <c r="T69">
+        <v>177</v>
+      </c>
+      <c r="U69">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70">
+        <v>129</v>
+      </c>
+      <c r="E70">
+        <v>147</v>
+      </c>
+      <c r="F70">
+        <v>102</v>
+      </c>
+      <c r="G70">
+        <v>131</v>
+      </c>
+      <c r="H70">
+        <v>139</v>
+      </c>
+      <c r="I70">
+        <v>245</v>
+      </c>
+      <c r="J70">
+        <v>83</v>
+      </c>
+      <c r="K70">
+        <v>57</v>
+      </c>
+      <c r="L70">
+        <v>89</v>
+      </c>
+      <c r="M70">
+        <v>144</v>
+      </c>
+      <c r="N70">
+        <v>50</v>
+      </c>
+      <c r="O70">
+        <v>89</v>
+      </c>
+      <c r="P70">
+        <v>134</v>
+      </c>
+      <c r="Q70">
+        <v>148</v>
+      </c>
+      <c r="R70">
+        <v>483</v>
+      </c>
+      <c r="S70">
+        <v>94</v>
+      </c>
+      <c r="T70">
+        <v>84</v>
+      </c>
+      <c r="U70">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>58</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>164</v>
+      </c>
+      <c r="F71">
+        <v>58</v>
+      </c>
+      <c r="G71">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <v>19</v>
+      </c>
+      <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>42</v>
+      </c>
+      <c r="K71">
+        <v>15</v>
+      </c>
+      <c r="L71">
+        <v>22</v>
+      </c>
+      <c r="M71">
+        <v>59</v>
+      </c>
+      <c r="N71">
+        <v>13</v>
+      </c>
+      <c r="O71">
+        <v>41</v>
+      </c>
+      <c r="P71">
+        <v>19</v>
+      </c>
+      <c r="Q71">
+        <v>17</v>
+      </c>
+      <c r="R71">
+        <v>24</v>
+      </c>
+      <c r="S71">
+        <v>51</v>
+      </c>
+      <c r="T71">
+        <v>17</v>
+      </c>
+      <c r="U71">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
